--- a/PAE_Interventoria/2024-I/RelacionPregunta-Nu-Item_VH.xlsx
+++ b/PAE_Interventoria/2024-I/RelacionPregunta-Nu-Item_VH.xlsx
@@ -1,111 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/madrodriguezca_unal_edu_co/Documents/Documentos/Python-/PAE_Interventoria/2024-I/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_2B59D2BFD380DC19FF192E11597F90B75715E02A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A80590-23B1-42E6-951E-D3C6ADB6ACC1}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>El vehículo es cargado con el equivalente de productos para cumplir con los paquetes alimentarios establecidos en el plan de rutas</t>
-  </si>
-  <si>
-    <t>El estado del producto en su unidad de manipulación es adecuado (La unidad de manipulación puede ser caja, bolsa, pallet)</t>
-  </si>
-  <si>
-    <t>Los vehículos poseen concepto sanitario favorable vigente emitido por la autoridad competente por acta que hace constar las condiciones sanitarias del mismo.</t>
-  </si>
-  <si>
-    <t>Tarjeta de propiedad de cada vehículo (Para los vehículos presentes en la bodega en el momento de la visita según plan de rutas)</t>
-  </si>
-  <si>
-    <t>Licencia de conducción del personal conductor de los vehículos (Para los vehículos presentes en la bodega en el momento de la visita según plan de rutas)</t>
-  </si>
-  <si>
-    <t>Curso de manipulación de alimentos o BPM vigente del personal conductor de los vehículos. (Para los vehículos presentes en la bodega en el momento de la visita según plan de rutas)</t>
-  </si>
-  <si>
-    <t>Certificación médica (apto para manipular alimentos) (no mayor a un año) con los respectivos soportes: Exámenes de laboratorio.</t>
-  </si>
-  <si>
-    <t>Copia del SOAT. (Para los vehículos presentes en la bodega en el momento de la visita según plan de rutas)</t>
-  </si>
-  <si>
-    <t>Revisión técnico mecánica (Para los vehículos presentes en la bodega en el momento de la visita según plan de rutas)</t>
-  </si>
-  <si>
-    <t>El vehículo cumple con los requisitos de higiene e inocuidad para el transporte de alimentos (limpieza del vehículo con producto adecuado)</t>
-  </si>
-  <si>
-    <t>Los vehículos  y los recipientes en los cuales se transportan los alimentos o materias primas, deben estar fabricados con materiales tales que permitan una correcta limpieza y desinfección.</t>
-  </si>
-  <si>
-    <t>El vehículo cuenta con constancia de fumigación contra plagas que puedan afectar el producto y que se encuentren libres de presencia o daño causado por plagas.</t>
-  </si>
-  <si>
-    <t>En el vehículo los alimentos no se colocan directamente sobre el piso de los medios de transporte y se utilizan recipientes, canastillas, o implementos de material adecuado, de manera que aíslan el producto de toda posibilidad de contaminación.</t>
-  </si>
-  <si>
-    <t>El personal manipulador utiliza la dotación completa, en buen estado, de color claro y cumple con las especificaciones de la norma legal vigente</t>
-  </si>
-  <si>
-    <t>La presentación del personal manipulador es adecuada (uñas cortas, limpias y sin esmalte, cabello recogido y completamente cubierto, sin uso de joyas u otros accesorios ni maquillaje, si se usan gafas, deben asegurarse) y uniforme limpio.</t>
-  </si>
-  <si>
-    <t>Los alimentos perecederos y/o de alto riesgo en salud pública se transportan en vehículos que poseen sistema de refrigeración o congelación en condiciones de funcionamiento que garantice el mantenimiento de las temperaturas requeridas para la conservación de los alimentos o sus materias primas, contando con indicadores y sistemas de registro, en caso de que ello se requiera.</t>
-  </si>
-  <si>
-    <t>Los vehículos que transportan conjuntamente alimentos y/o materia prima de diferente naturaleza y conservación se encuentren debidamente envasados, protegidos y se evite la contaminación cruzada.</t>
-  </si>
-  <si>
-    <t>Los vehículos son utilizados exclusivamente para el transporte de alimentos correspondientes al PAE y llevan el aviso de "transporte de alimentos".</t>
-  </si>
-  <si>
-    <t>El operador facilita el suministro de información pertinente respecto a las anteriores variables de tal manera que no se presentan dilataciones en los procesos de verificación.</t>
-  </si>
-  <si>
-    <t>Pregunta</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,179 +420,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="63.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>El vehículo es cargado con el equivalente de productos para cumplir con los paquetes alimentarios establecidos en el plan de rutas</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>El estado del producto en su unidad de manipulación es adecuado (La unidad de manipulación puede ser caja, bolsa, pallet)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Los vehículos poseen concepto sanitario favorable vigente emitido por la autoridad competente por acta que hace constar las condiciones sanitarias del mismo.</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tarjeta de propiedad de cada vehículo (Para los vehículos presentes en la bodega en el momento de la visita según plan de rutas)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Licencia de conducción del personal conductor de los vehículos (Para los vehículos presentes en la bodega en el momento de la visita según plan de rutas)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Curso de manipulación de alimentos o BPM vigente del personal conductor de los vehículos. (Para los vehículos presentes en la bodega en el momento de la visita según plan de rutas)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Certificación médica (apto para manipular alimentos) (no mayor a un año) con los respectivos soportes: Exámenes de laboratorio.</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Copia del SOAT. (Para los vehículos presentes en la bodega en el momento de la visita según plan de rutas)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Revisión técnico mecánica (Para los vehículos presentes en la bodega en el momento de la visita según plan de rutas)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>El vehículo cumple con los requisitos de higiene e inocuidad para el transporte de alimentos (limpieza del vehículo con producto adecuado)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Los vehículos  y los recipientes en los cuales se transportan los alimentos o materias primas, deben estar fabricados con materiales tales que permitan una correcta limpieza y desinfección.</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>El vehículo cuenta con constancia de fumigación contra plagas que puedan afectar el producto y que se encuentren libres de presencia o daño causado por plagas.</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>En el vehículo los alimentos no se colocan directamente sobre el piso de los medios de transporte y se utilizan recipientes, canastillas, o implementos de material adecuado, de manera que aíslan el producto de toda posibilidad de contaminación.</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>El personal manipulador utiliza la dotación completa, en buen estado, de color claro y cumple con las especificaciones de la norma legal vigente</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>La presentación del personal manipulador es adecuada (uñas cortas, limpias y sin esmalte, cabello recogido y completamente cubierto, sin uso de joyas u otros accesorios ni maquillaje, si se usan gafas, deben asegurarse) y uniforme limpio.</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Los alimentos perecederos y/o de alto riesgo en salud pública se transportan en vehículos que poseen sistema de refrigeración o congelación en condiciones de funcionamiento que garantice el mantenimiento de las temperaturas requeridas para la conservación de los alimentos o sus materias primas, contando con indicadores y sistemas de registro, en caso de que ello se requiera.</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Los vehículos que transportan conjuntamente alimentos y/o materia prima de diferente naturaleza y conservación se encuentren debidamente envasados, protegidos y se evite la contaminación cruzada.</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Los vehículos son utilizados exclusivamente para el transporte de alimentos correspondientes al PAE y llevan el aviso de "transporte de alimentos".</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>El operador facilita el suministro de información pertinente respecto a las anteriores variables de tal manera que no se presentan dilataciones en los procesos de verificación.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="C2" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="D2" t="n">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="E2" t="n">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="F2" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="G2" t="n">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="H2" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="I2" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="J2" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="K2" t="n">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="L2" t="n">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="M2" t="n">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="N2" t="n">
         <v>140</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="O2" t="n">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="P2" t="n">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="Q2" t="n">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="R2" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="S2" t="n">
         <v>190</v>
       </c>
     </row>
